--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4046813.457756795</v>
+        <v>4044659.974159767</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7008206.250780003</v>
+        <v>7008206.250780002</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.02742459951007</v>
+        <v>414.0274245995101</v>
       </c>
       <c r="H2" t="n">
-        <v>152.7013237557232</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.3093883907739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.7587430050221</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.9588765214411</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.513167275983</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2436278745865</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>366.3034433065988</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.6611645970817</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6453549794088</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.79211956439002</v>
+        <v>57.79211956439014</v>
       </c>
       <c r="S3" t="n">
         <v>159.0087714654335</v>
@@ -792,10 +792,10 @@
         <v>197.4143690094158</v>
       </c>
       <c r="U3" t="n">
-        <v>2.109871944715619</v>
+        <v>225.8964904647821</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>114.6593236087634</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>137.4691170622904</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.5714274743919</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5013267848716</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>200.8668464907386</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.9364581348098</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>34.37808733934417</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>197.5294886147938</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3191370776127</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.7914287593392</v>
+        <v>80.79142875933921</v>
       </c>
       <c r="T11" t="n">
         <v>175.5216371107835</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.4356471531007</v>
+        <v>81.1939263724659</v>
       </c>
       <c r="C13" t="n">
         <v>138.8504880697912</v>
@@ -1534,7 +1534,7 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E13" t="n">
-        <v>114.0730484858511</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.79142875933918</v>
+        <v>80.79142875933921</v>
       </c>
       <c r="T14" t="n">
-        <v>175.5216371107835</v>
+        <v>175.5216371107842</v>
       </c>
       <c r="U14" t="n">
         <v>222.5988389300653</v>
@@ -1673,7 +1673,7 @@
         <v>341.3347676496324</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.8416056272164</v>
+        <v>357.8416056272169</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E16" t="n">
-        <v>114.0730484858509</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.1883203232582</v>
+        <v>186.2237391913768</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>354.3375086346439</v>
+        <v>354.337508634644</v>
       </c>
       <c r="C17" t="n">
-        <v>336.8765587421709</v>
+        <v>336.876558742171</v>
       </c>
       <c r="D17" t="n">
-        <v>326.2867085918463</v>
+        <v>326.2867085918464</v>
       </c>
       <c r="E17" t="n">
-        <v>353.5340370434251</v>
+        <v>353.5340370434252</v>
       </c>
       <c r="F17" t="n">
-        <v>378.4797127128744</v>
+        <v>378.4797127128749</v>
       </c>
       <c r="G17" t="n">
-        <v>382.5253926246168</v>
+        <v>382.5253926246169</v>
       </c>
       <c r="H17" t="n">
-        <v>266.2114313584838</v>
+        <v>266.2114313584839</v>
       </c>
       <c r="I17" t="n">
-        <v>13.18059674408934</v>
+        <v>13.18059674408941</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.79142875933918</v>
+        <v>80.79142875933927</v>
       </c>
       <c r="T17" t="n">
-        <v>175.5216371107835</v>
+        <v>175.5216371107836</v>
       </c>
       <c r="U17" t="n">
-        <v>222.5988389300653</v>
+        <v>222.5988389300654</v>
       </c>
       <c r="V17" t="n">
         <v>299.3559254412983</v>
@@ -1907,10 +1907,10 @@
         <v>320.8446356885764</v>
       </c>
       <c r="X17" t="n">
-        <v>341.3347676496324</v>
+        <v>341.3347676496325</v>
       </c>
       <c r="Y17" t="n">
-        <v>357.8416056272169</v>
+        <v>357.841605627217</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C19" t="n">
-        <v>138.8504880697912</v>
+        <v>138.8504880697913</v>
       </c>
       <c r="D19" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.0376296177325</v>
+        <v>118.0376296177326</v>
       </c>
       <c r="F19" t="n">
-        <v>117.0247149940946</v>
+        <v>117.0247149940947</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100155</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>60.53581964121076</v>
       </c>
       <c r="S19" t="n">
-        <v>32.96312843683903</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T19" t="n">
         <v>191.1526162473326</v>
       </c>
       <c r="U19" t="n">
-        <v>257.8155051767762</v>
+        <v>257.8155051767763</v>
       </c>
       <c r="V19" t="n">
         <v>223.7413102949914</v>
       </c>
       <c r="W19" t="n">
-        <v>258.1266653077544</v>
+        <v>51.77094655995919</v>
       </c>
       <c r="X19" t="n">
-        <v>197.3133223602005</v>
+        <v>197.3133223602006</v>
       </c>
       <c r="Y19" t="n">
         <v>190.1883203232582</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.79142875933918</v>
+        <v>80.79142875933921</v>
       </c>
       <c r="T20" t="n">
         <v>175.5216371107835</v>
@@ -2138,7 +2138,7 @@
         <v>222.5988389300653</v>
       </c>
       <c r="V20" t="n">
-        <v>299.3559254412978</v>
+        <v>299.3559254412983</v>
       </c>
       <c r="W20" t="n">
         <v>320.8446356885764</v>
@@ -2242,13 +2242,13 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D22" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>118.0376296177325</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G22" t="n">
         <v>137.6294752301916</v>
@@ -2257,7 +2257,7 @@
         <v>116.3586818854841</v>
       </c>
       <c r="I22" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S22" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T22" t="n">
         <v>191.1526162473326</v>
@@ -2296,13 +2296,13 @@
         <v>257.8155051767762</v>
       </c>
       <c r="V22" t="n">
-        <v>155.959149974187</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>200.681674415679</v>
       </c>
       <c r="X22" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>190.1883203232582</v>
@@ -2482,19 +2482,19 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E25" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3586818854841</v>
+        <v>114.0730484858516</v>
       </c>
       <c r="I25" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U25" t="n">
-        <v>73.00862986187762</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V25" t="n">
         <v>223.7413102949914</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X25" t="n">
         <v>197.3133223602005</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.32824838329607</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>112.9416910403791</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>195.5884891059321</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004726</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486462</v>
+        <v>258.2317318494251</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,10 +3481,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>43.86344459103356</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>36.71927184149922</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.510364625081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492335</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>162.5419370581612</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>8.612336174460218</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>581.9436795313736</v>
+        <v>636.4133997479067</v>
       </c>
       <c r="C2" t="n">
-        <v>581.9436795313736</v>
+        <v>636.4133997479067</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6779809246231</v>
+        <v>636.4133997479067</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6779809246231</v>
+        <v>636.4133997479067</v>
       </c>
       <c r="F2" t="n">
-        <v>216.7324801754197</v>
+        <v>629.4678989987033</v>
       </c>
       <c r="G2" t="n">
-        <v>202.5633644183388</v>
+        <v>211.2583792012182</v>
       </c>
       <c r="H2" t="n">
-        <v>48.31960304892144</v>
+        <v>211.2583792012182</v>
       </c>
       <c r="I2" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="J2" t="n">
-        <v>143.6479902646556</v>
+        <v>143.6479902646554</v>
       </c>
       <c r="K2" t="n">
-        <v>407.2653356136</v>
+        <v>407.2653356135991</v>
       </c>
       <c r="L2" t="n">
-        <v>786.582590701423</v>
+        <v>786.5825907014216</v>
       </c>
       <c r="M2" t="n">
-        <v>1225.252669070105</v>
+        <v>1225.252669070103</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.388890376426</v>
+        <v>1656.388890376424</v>
       </c>
       <c r="O2" t="n">
-        <v>2018.310960741458</v>
+        <v>2018.310960741455</v>
       </c>
       <c r="P2" t="n">
-        <v>2289.528691527446</v>
+        <v>2289.528691527442</v>
       </c>
       <c r="Q2" t="n">
-        <v>2415.980152446072</v>
+        <v>2415.980152446068</v>
       </c>
       <c r="R2" t="n">
-        <v>2415.980152446072</v>
+        <v>2345.516775673318</v>
       </c>
       <c r="S2" t="n">
-        <v>2415.980152446072</v>
+        <v>2163.740132722367</v>
       </c>
       <c r="T2" t="n">
-        <v>2415.980152446072</v>
+        <v>1944.029862746627</v>
       </c>
       <c r="U2" t="n">
-        <v>2415.980152446072</v>
+        <v>1690.248420449065</v>
       </c>
       <c r="V2" t="n">
-        <v>2084.917265102501</v>
+        <v>1359.185533105494</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.148609832387</v>
+        <v>1006.41687783538</v>
       </c>
       <c r="X2" t="n">
-        <v>1358.682851571307</v>
+        <v>636.4133997479067</v>
       </c>
       <c r="Y2" t="n">
-        <v>968.5435195954954</v>
+        <v>636.4133997479067</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>922.2331151481434</v>
+        <v>815.5206353709627</v>
       </c>
       <c r="C3" t="n">
-        <v>747.7800858670164</v>
+        <v>641.0676060898357</v>
       </c>
       <c r="D3" t="n">
-        <v>598.8456762057651</v>
+        <v>492.1331964285845</v>
       </c>
       <c r="E3" t="n">
-        <v>439.6082212003097</v>
+        <v>332.895741423129</v>
       </c>
       <c r="F3" t="n">
-        <v>293.0736632271946</v>
+        <v>186.361183450014</v>
       </c>
       <c r="G3" t="n">
-        <v>155.032082826102</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="H3" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="I3" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="J3" t="n">
-        <v>48.31960304892144</v>
+        <v>111.4031577267781</v>
       </c>
       <c r="K3" t="n">
-        <v>282.7602889089457</v>
+        <v>345.8438435868021</v>
       </c>
       <c r="L3" t="n">
-        <v>659.3991191121744</v>
+        <v>527.5225794610267</v>
       </c>
       <c r="M3" t="n">
-        <v>1150.898090693709</v>
+        <v>1019.021551042561</v>
       </c>
       <c r="N3" t="n">
-        <v>1671.11259093963</v>
+        <v>1539.236051288481</v>
       </c>
       <c r="O3" t="n">
-        <v>2080.591548261532</v>
+        <v>1948.715008610383</v>
       </c>
       <c r="P3" t="n">
-        <v>2260.354904486377</v>
+        <v>2260.354904486373</v>
       </c>
       <c r="Q3" t="n">
-        <v>2415.980152446072</v>
+        <v>2415.980152446068</v>
       </c>
       <c r="R3" t="n">
-        <v>2357.604274098203</v>
+        <v>2357.604274098199</v>
       </c>
       <c r="S3" t="n">
-        <v>2196.989353426048</v>
+        <v>2196.989353426044</v>
       </c>
       <c r="T3" t="n">
-        <v>1997.580899881183</v>
+        <v>1997.580899881179</v>
       </c>
       <c r="U3" t="n">
-        <v>1995.449716098642</v>
+        <v>1769.40262668443</v>
       </c>
       <c r="V3" t="n">
-        <v>1760.2976078669</v>
+        <v>1653.585128089719</v>
       </c>
       <c r="W3" t="n">
-        <v>1506.060251138698</v>
+        <v>1399.347771361518</v>
       </c>
       <c r="X3" t="n">
-        <v>1298.208750933165</v>
+        <v>1191.496271155985</v>
       </c>
       <c r="Y3" t="n">
-        <v>1090.448452168211</v>
+        <v>983.7359723910308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>632.0969775438742</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="C4" t="n">
-        <v>632.0969775438742</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="D4" t="n">
-        <v>481.9803381315385</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="E4" t="n">
-        <v>334.0672445491454</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="F4" t="n">
-        <v>187.177297051235</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="G4" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="H4" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="I4" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="J4" t="n">
-        <v>48.31960304892144</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="K4" t="n">
-        <v>92.07131639012957</v>
+        <v>92.07131639012928</v>
       </c>
       <c r="L4" t="n">
-        <v>203.5848808821463</v>
+        <v>203.5848808821457</v>
       </c>
       <c r="M4" t="n">
-        <v>331.5494223780157</v>
+        <v>331.549422378015</v>
       </c>
       <c r="N4" t="n">
-        <v>461.9058695137801</v>
+        <v>461.9058695137792</v>
       </c>
       <c r="O4" t="n">
-        <v>566.2948517315309</v>
+        <v>566.2948517315298</v>
       </c>
       <c r="P4" t="n">
-        <v>632.0969775438742</v>
+        <v>632.096977543873</v>
       </c>
       <c r="Q4" t="n">
-        <v>632.0969775438742</v>
+        <v>632.096977543873</v>
       </c>
       <c r="R4" t="n">
-        <v>632.0969775438742</v>
+        <v>478.9945255495377</v>
       </c>
       <c r="S4" t="n">
-        <v>632.0969775438742</v>
+        <v>478.9945255495377</v>
       </c>
       <c r="T4" t="n">
-        <v>632.0969775438742</v>
+        <v>251.215407585021</v>
       </c>
       <c r="U4" t="n">
-        <v>632.0969775438742</v>
+        <v>251.215407585021</v>
       </c>
       <c r="V4" t="n">
-        <v>632.0969775438742</v>
+        <v>251.215407585021</v>
       </c>
       <c r="W4" t="n">
-        <v>632.0969775438742</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="X4" t="n">
-        <v>632.0969775438742</v>
+        <v>48.31960304892135</v>
       </c>
       <c r="Y4" t="n">
-        <v>632.0969775438742</v>
+        <v>48.31960304892135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.883734065348</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>917.6180354585974</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>917.6180354585974</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>506.6321306689899</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>88.66832256717674</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>528.604248231895</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4790,31 +4790,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2164.65364334605</v>
+        <v>2164.653643346051</v>
       </c>
       <c r="C11" t="n">
         <v>1824.374291081231</v>
       </c>
       <c r="D11" t="n">
-        <v>1494.791757150073</v>
+        <v>1494.791757150074</v>
       </c>
       <c r="E11" t="n">
-        <v>1137.686669227421</v>
+        <v>1137.686669227422</v>
       </c>
       <c r="F11" t="n">
-        <v>755.3839291134063</v>
+        <v>755.383929113407</v>
       </c>
       <c r="G11" t="n">
-        <v>368.9946436339954</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H11" t="n">
         <v>100.0942079183558</v>
@@ -5042,34 +5042,34 @@
         <v>275.6596047924425</v>
       </c>
       <c r="K11" t="n">
-        <v>907.0555906028546</v>
+        <v>609.4789784822888</v>
       </c>
       <c r="L11" t="n">
-        <v>1358.089803851263</v>
+        <v>1060.513191730697</v>
       </c>
       <c r="M11" t="n">
-        <v>1891.621708523188</v>
+        <v>2039.063494560526</v>
       </c>
       <c r="N11" t="n">
-        <v>2438.40052558197</v>
+        <v>3018.815766787172</v>
       </c>
       <c r="O11" t="n">
-        <v>3318.365175911425</v>
+        <v>3571.886641326939</v>
       </c>
       <c r="P11" t="n">
-        <v>4031.72026335837</v>
+        <v>3966.661007684117</v>
       </c>
       <c r="Q11" t="n">
-        <v>4280.006625114052</v>
+        <v>4214.947369439799</v>
       </c>
       <c r="R11" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S11" t="n">
-        <v>4257.416187873541</v>
+        <v>4257.416187873542</v>
       </c>
       <c r="T11" t="n">
-        <v>4080.121604933356</v>
+        <v>4080.121604933357</v>
       </c>
       <c r="U11" t="n">
         <v>3855.274292882786</v>
@@ -5084,7 +5084,7 @@
         <v>2884.026486034799</v>
       </c>
       <c r="Y11" t="n">
-        <v>2522.570318734579</v>
+        <v>2522.57031873458</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>86.78047383341709</v>
       </c>
       <c r="J12" t="n">
-        <v>180.4577433240346</v>
+        <v>180.4577433240344</v>
       </c>
       <c r="K12" t="n">
-        <v>418.7219423043817</v>
+        <v>418.7219423043815</v>
       </c>
       <c r="L12" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M12" t="n">
         <v>1232.696427839363</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.6922683233343</v>
+        <v>534.6435014350864</v>
       </c>
       <c r="C13" t="n">
-        <v>323.43925007102</v>
+        <v>394.390483182772</v>
       </c>
       <c r="D13" t="n">
-        <v>202.0057753342768</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="E13" t="n">
-        <v>86.78047383341709</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="F13" t="n">
-        <v>86.78047383341709</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="G13" t="n">
-        <v>86.78047383341709</v>
+        <v>272.9570084460289</v>
       </c>
       <c r="H13" t="n">
-        <v>86.78047383341709</v>
+        <v>155.4229863394792</v>
       </c>
       <c r="I13" t="n">
         <v>86.78047383341709</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0154759789007</v>
+        <v>160.0154759789009</v>
       </c>
       <c r="K13" t="n">
-        <v>392.1150286263253</v>
+        <v>392.1150286263255</v>
       </c>
       <c r="L13" t="n">
         <v>736.7871967733697</v>
@@ -5236,13 +5236,13 @@
         <v>1268.807374529712</v>
       </c>
       <c r="W13" t="n">
-        <v>1008.073369168344</v>
+        <v>1008.073369168343</v>
       </c>
       <c r="X13" t="n">
-        <v>808.7669829459189</v>
+        <v>808.7669829459187</v>
       </c>
       <c r="Y13" t="n">
-        <v>616.6575684779814</v>
+        <v>616.6575684779812</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5273,37 @@
         <v>100.0942079183558</v>
       </c>
       <c r="I14" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J14" t="n">
-        <v>275.6596047924425</v>
+        <v>443.0652538127955</v>
       </c>
       <c r="K14" t="n">
-        <v>930.3829369277419</v>
+        <v>1092.550837310584</v>
       </c>
       <c r="L14" t="n">
-        <v>1381.41715017615</v>
+        <v>1543.585050558993</v>
       </c>
       <c r="M14" t="n">
-        <v>1914.949054848075</v>
+        <v>2522.135353388821</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.727871906857</v>
+        <v>3068.914170447603</v>
       </c>
       <c r="O14" t="n">
-        <v>3318.365175911425</v>
+        <v>3571.88664132694</v>
       </c>
       <c r="P14" t="n">
-        <v>4031.72026335837</v>
+        <v>3966.661007684118</v>
       </c>
       <c r="Q14" t="n">
-        <v>4280.006625114052</v>
+        <v>4214.9473694398</v>
       </c>
       <c r="R14" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S14" t="n">
-        <v>4257.416187873542</v>
+        <v>4257.416187873543</v>
       </c>
       <c r="T14" t="n">
         <v>4080.121604933357</v>
@@ -5352,16 +5352,16 @@
         <v>105.7877654318792</v>
       </c>
       <c r="I15" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J15" t="n">
         <v>180.4577433240344</v>
       </c>
       <c r="K15" t="n">
-        <v>418.7219423043817</v>
+        <v>418.7219423043815</v>
       </c>
       <c r="L15" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M15" t="n">
         <v>1232.696427839363</v>
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.692268323334</v>
+        <v>467.6968957292752</v>
       </c>
       <c r="C16" t="n">
-        <v>323.4392500710198</v>
+        <v>327.4438774769608</v>
       </c>
       <c r="D16" t="n">
-        <v>202.0057753342766</v>
+        <v>206.0104027402177</v>
       </c>
       <c r="E16" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="F16" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="G16" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="H16" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="I16" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J16" t="n">
         <v>160.0154759789009</v>
       </c>
       <c r="K16" t="n">
-        <v>392.1150286263251</v>
+        <v>392.1150286263255</v>
       </c>
       <c r="L16" t="n">
-        <v>736.7871967733695</v>
+        <v>736.7871967733698</v>
       </c>
       <c r="M16" t="n">
         <v>1109.056612071467</v>
       </c>
       <c r="N16" t="n">
-        <v>1478.577358475879</v>
+        <v>1478.57735847588</v>
       </c>
       <c r="O16" t="n">
-        <v>1806.019327094841</v>
+        <v>1806.019327094842</v>
       </c>
       <c r="P16" t="n">
-        <v>2066.739197227048</v>
+        <v>2066.739197227049</v>
       </c>
       <c r="Q16" t="n">
-        <v>2172.461863078111</v>
+        <v>2172.461863078112</v>
       </c>
       <c r="R16" t="n">
-        <v>2111.314570511232</v>
+        <v>2111.314570511233</v>
       </c>
       <c r="S16" t="n">
-        <v>1948.311851013651</v>
+        <v>1948.311851013652</v>
       </c>
       <c r="T16" t="n">
         <v>1755.22840025877</v>
@@ -5476,10 +5476,10 @@
         <v>1008.073369168344</v>
       </c>
       <c r="X16" t="n">
-        <v>808.7669829459188</v>
+        <v>808.7669829459195</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.6575684779812</v>
+        <v>620.6621958839223</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2164.653643346051</v>
       </c>
       <c r="C17" t="n">
-        <v>1824.374291081231</v>
+        <v>1824.374291081232</v>
       </c>
       <c r="D17" t="n">
-        <v>1494.791757150073</v>
+        <v>1494.791757150074</v>
       </c>
       <c r="E17" t="n">
         <v>1137.686669227422</v>
       </c>
       <c r="F17" t="n">
-        <v>755.383929113407</v>
+        <v>755.3839291134072</v>
       </c>
       <c r="G17" t="n">
-        <v>368.9946436339961</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H17" t="n">
-        <v>100.0942079183558</v>
+        <v>100.0942079183559</v>
       </c>
       <c r="I17" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J17" t="n">
         <v>275.6596047924425</v>
       </c>
       <c r="K17" t="n">
-        <v>907.0555906028546</v>
+        <v>609.4789784822889</v>
       </c>
       <c r="L17" t="n">
-        <v>1358.089803851263</v>
+        <v>1060.513191730698</v>
       </c>
       <c r="M17" t="n">
-        <v>1891.621708523188</v>
+        <v>1835.640432805442</v>
       </c>
       <c r="N17" t="n">
-        <v>2438.40052558197</v>
+        <v>2815.392705032089</v>
       </c>
       <c r="O17" t="n">
         <v>3318.365175911425</v>
       </c>
       <c r="P17" t="n">
-        <v>4031.72026335837</v>
+        <v>4031.720263358371</v>
       </c>
       <c r="Q17" t="n">
-        <v>4280.006625114052</v>
+        <v>4280.006625114053</v>
       </c>
       <c r="R17" t="n">
         <v>4339.023691670855</v>
       </c>
       <c r="S17" t="n">
-        <v>4257.416187873542</v>
+        <v>4257.416187873543</v>
       </c>
       <c r="T17" t="n">
-        <v>4080.121604933357</v>
+        <v>4080.121604933358</v>
       </c>
       <c r="U17" t="n">
-        <v>3855.274292882786</v>
+        <v>3855.274292882787</v>
       </c>
       <c r="V17" t="n">
-        <v>3552.894570214808</v>
+        <v>3552.894570214809</v>
       </c>
       <c r="W17" t="n">
-        <v>3228.809079620286</v>
+        <v>3228.809079620287</v>
       </c>
       <c r="X17" t="n">
-        <v>2884.026486034799</v>
+        <v>2884.0264860348</v>
       </c>
       <c r="Y17" t="n">
         <v>2522.57031873458</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>961.8122118823417</v>
+        <v>961.8122118823422</v>
       </c>
       <c r="C18" t="n">
-        <v>787.3591826012147</v>
+        <v>787.3591826012153</v>
       </c>
       <c r="D18" t="n">
-        <v>638.4247729399635</v>
+        <v>638.424772939964</v>
       </c>
       <c r="E18" t="n">
-        <v>479.187317934508</v>
+        <v>479.1873179345085</v>
       </c>
       <c r="F18" t="n">
-        <v>332.652759961393</v>
+        <v>332.6527599613935</v>
       </c>
       <c r="G18" t="n">
         <v>196.2896597940116</v>
@@ -5589,16 +5589,16 @@
         <v>105.7877654318792</v>
       </c>
       <c r="I18" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J18" t="n">
-        <v>180.4577433240343</v>
+        <v>180.4577433240344</v>
       </c>
       <c r="K18" t="n">
-        <v>418.7219423043813</v>
+        <v>418.7219423043817</v>
       </c>
       <c r="L18" t="n">
-        <v>785.4201026170466</v>
+        <v>785.420102617047</v>
       </c>
       <c r="M18" t="n">
         <v>1232.696427839363</v>
@@ -5631,7 +5631,7 @@
         <v>1799.876704601098</v>
       </c>
       <c r="W18" t="n">
-        <v>1545.639347872896</v>
+        <v>1545.639347872897</v>
       </c>
       <c r="X18" t="n">
         <v>1337.787847667364</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.5461910576546</v>
+        <v>672.1323882706007</v>
       </c>
       <c r="C19" t="n">
-        <v>514.2931728053402</v>
+        <v>531.8793700182863</v>
       </c>
       <c r="D19" t="n">
-        <v>392.859698068597</v>
+        <v>531.8793700182863</v>
       </c>
       <c r="E19" t="n">
-        <v>273.6297691617965</v>
+        <v>412.6494411114857</v>
       </c>
       <c r="F19" t="n">
-        <v>155.4229863394792</v>
+        <v>294.4426582891678</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4229863394792</v>
+        <v>155.4229863394793</v>
       </c>
       <c r="H19" t="n">
-        <v>155.4229863394792</v>
+        <v>155.4229863394793</v>
       </c>
       <c r="I19" t="n">
-        <v>86.78047383341709</v>
+        <v>86.7804738334171</v>
       </c>
       <c r="J19" t="n">
-        <v>160.015475978901</v>
+        <v>160.0154759789007</v>
       </c>
       <c r="K19" t="n">
-        <v>392.1150286263256</v>
+        <v>392.1150286263252</v>
       </c>
       <c r="L19" t="n">
-        <v>736.7871967733699</v>
+        <v>736.7871967733695</v>
       </c>
       <c r="M19" t="n">
         <v>1109.056612071467</v>
@@ -5686,7 +5686,7 @@
         <v>1478.57735847588</v>
       </c>
       <c r="O19" t="n">
-        <v>1806.019327094842</v>
+        <v>1806.019327094841</v>
       </c>
       <c r="P19" t="n">
         <v>2066.739197227049</v>
@@ -5695,28 +5695,28 @@
         <v>2172.461863078112</v>
       </c>
       <c r="R19" t="n">
-        <v>2172.461863078112</v>
+        <v>2111.314570511232</v>
       </c>
       <c r="S19" t="n">
-        <v>2139.165773747972</v>
+        <v>1948.311851013651</v>
       </c>
       <c r="T19" t="n">
-        <v>1946.08232299309</v>
+        <v>1755.22840025877</v>
       </c>
       <c r="U19" t="n">
-        <v>1685.662620794326</v>
+        <v>1494.808698060006</v>
       </c>
       <c r="V19" t="n">
-        <v>1459.661297264032</v>
+        <v>1268.807374529711</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.927291902664</v>
+        <v>1216.51348911561</v>
       </c>
       <c r="X19" t="n">
-        <v>999.6209056802393</v>
+        <v>1017.207102893186</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.5114912123017</v>
+        <v>825.097688425248</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>2164.653643346051</v>
       </c>
       <c r="C20" t="n">
-        <v>1824.374291081232</v>
+        <v>1824.374291081231</v>
       </c>
       <c r="D20" t="n">
-        <v>1494.791757150074</v>
+        <v>1494.791757150073</v>
       </c>
       <c r="E20" t="n">
         <v>1137.686669227422</v>
@@ -5741,7 +5741,7 @@
         <v>755.383929113407</v>
       </c>
       <c r="G20" t="n">
-        <v>368.9946436339961</v>
+        <v>368.994643633996</v>
       </c>
       <c r="H20" t="n">
         <v>100.0942079183558</v>
@@ -5750,28 +5750,28 @@
         <v>86.78047383341709</v>
       </c>
       <c r="J20" t="n">
-        <v>443.0652538127955</v>
+        <v>275.6596047924425</v>
       </c>
       <c r="K20" t="n">
-        <v>1097.788585948095</v>
+        <v>930.3829369277419</v>
       </c>
       <c r="L20" t="n">
-        <v>1548.822799196503</v>
+        <v>1381.41715017615</v>
       </c>
       <c r="M20" t="n">
-        <v>2082.354703868428</v>
+        <v>1914.949054848075</v>
       </c>
       <c r="N20" t="n">
-        <v>2629.13352092721</v>
+        <v>2858.722329694297</v>
       </c>
       <c r="O20" t="n">
-        <v>3132.105991806547</v>
+        <v>3361.694800573634</v>
       </c>
       <c r="P20" t="n">
-        <v>3821.528422605064</v>
+        <v>3756.469166930811</v>
       </c>
       <c r="Q20" t="n">
-        <v>4280.006625114052</v>
+        <v>4214.947369439799</v>
       </c>
       <c r="R20" t="n">
         <v>4339.023691670855</v>
@@ -5832,10 +5832,10 @@
         <v>180.4577433240344</v>
       </c>
       <c r="K21" t="n">
-        <v>418.7219423043817</v>
+        <v>418.7219423043815</v>
       </c>
       <c r="L21" t="n">
-        <v>785.420102617047</v>
+        <v>785.4201026170467</v>
       </c>
       <c r="M21" t="n">
         <v>1232.696427839363</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>792.8931022915754</v>
+        <v>721.0238978710879</v>
       </c>
       <c r="C22" t="n">
-        <v>652.6400840392611</v>
+        <v>580.7708796187735</v>
       </c>
       <c r="D22" t="n">
-        <v>531.2066093025179</v>
+        <v>580.7708796187735</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9766803957173</v>
+        <v>461.540950711973</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9766803957173</v>
+        <v>343.3341678896552</v>
       </c>
       <c r="G22" t="n">
-        <v>272.9570084460288</v>
+        <v>204.3144959399667</v>
       </c>
       <c r="H22" t="n">
-        <v>155.4229863394792</v>
+        <v>86.78047383341709</v>
       </c>
       <c r="I22" t="n">
         <v>86.78047383341709</v>
@@ -5944,16 +5944,16 @@
         <v>1494.808698060006</v>
       </c>
       <c r="V22" t="n">
-        <v>1337.274203136585</v>
+        <v>1268.807374529712</v>
       </c>
       <c r="W22" t="n">
-        <v>1337.274203136585</v>
+        <v>1066.098612493673</v>
       </c>
       <c r="X22" t="n">
-        <v>1137.96781691416</v>
+        <v>1066.098612493673</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.8584024462225</v>
+        <v>873.989198025735</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,49 +5990,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>919.8804457288709</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6274274765565</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="D25" t="n">
-        <v>658.1939527398133</v>
+        <v>210.7863359492546</v>
       </c>
       <c r="E25" t="n">
-        <v>538.9640238330124</v>
+        <v>210.7863359492546</v>
       </c>
       <c r="F25" t="n">
-        <v>420.7572410106947</v>
+        <v>210.7863359492546</v>
       </c>
       <c r="G25" t="n">
-        <v>281.7375690610062</v>
+        <v>210.7863359492546</v>
       </c>
       <c r="H25" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938784</v>
       </c>
       <c r="K25" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L25" t="n">
         <v>745.5677573883472</v>
@@ -6163,10 +6163,10 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P25" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q25" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R25" t="n">
         <v>2120.09513112621</v>
@@ -6178,19 +6178,19 @@
         <v>1764.008960873748</v>
       </c>
       <c r="U25" t="n">
-        <v>1690.262870104174</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V25" t="n">
-        <v>1464.26154657388</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W25" t="n">
-        <v>1464.26154657388</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X25" t="n">
-        <v>1264.955160351456</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y25" t="n">
-        <v>1072.845745883518</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,13 +6224,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>291.9947530764115</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>625.8141267662579</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.866738172571</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M26" t="n">
         <v>2055.398642844495</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320247</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839437</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839437</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>908.9588510157364</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>680.9693001177191</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>460.1767209741889</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6467,40 +6467,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4243.923885728433</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4702.402088237421</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6552,16 +6552,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.3002584566045</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="C31" t="n">
-        <v>390.3640755286976</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286976</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463046</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1842.2609499023</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1620.494334471826</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.39146759747</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1076.706979391583</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>787.2898093546219</v>
+        <v>711.709023768308</v>
       </c>
       <c r="X31" t="n">
-        <v>559.3002584566045</v>
+        <v>711.709023768308</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.3002584566045</v>
+        <v>490.9164446247779</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.557933208926</v>
@@ -6698,19 +6698,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6789,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1192.220376077347</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>937.5358878714601</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>648.1187178344994</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>648.1187178344994</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,16 +6923,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277728</v>
@@ -6941,40 +6941,40 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.070220408989</v>
@@ -7011,28 +7011,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>489.220537824527</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839422</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839422</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839422</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
         <v>344.6708498442061</v>
@@ -7111,34 +7111,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q37" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1119.651132696314</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1119.651132696314</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>891.6615817982969</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>670.8690026547667</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,52 +7169,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7248,13 +7248,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320247</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.6836668953299</v>
@@ -7336,13 +7336,13 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.125669518529</v>
@@ -7357,25 +7357,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783403</v>
+        <v>1126.867468806955</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413796</v>
+        <v>837.4502987699944</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433623</v>
+        <v>609.4607478719771</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>388.668168728447</v>
       </c>
     </row>
     <row r="41">
@@ -7406,52 +7406,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622688</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
         <v>2760.816196754298</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
@@ -7494,46 +7494,46 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>677.43882476563</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>508.5026418377231</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>508.5026418377231</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>360.58954825533</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>360.58954825533</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7585,7 +7585,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q43" t="n">
         <v>1956.343466104703</v>
@@ -7594,25 +7594,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783403</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413796</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X43" t="n">
-        <v>391.8664332433623</v>
+        <v>677.43882476563</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0738540998321</v>
+        <v>677.43882476563</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7643,52 +7643,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2383.05734389077</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
         <v>2760.816196754298</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7746,31 +7746,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>390.364075528698</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>390.364075528698</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7822,34 +7822,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>611.1566546722281</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>390.364075528698</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.37027303954321</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.9109570923443</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>185.2541427296888</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,28 +8690,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>300.58243648542</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>50.60444814184905</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>318.85475738176</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>357.2372051770005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>300.58243648542</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>244.035693336182</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>401.0045028155955</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>297.6243075165044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17.45080131651133</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>7.630896635345181</v>
       </c>
       <c r="K26" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.80057335908877</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>19.79750571619354</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>57.67224444723826</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476844</v>
+        <v>354.483684940662</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>198.7154374299959</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>338.5992815305718</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70.24172078063476</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.964581131881431</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F13" t="n">
         <v>117.0247149940946</v>
@@ -23431,10 +23431,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.964581131881644</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>117.0247149940946</v>
@@ -23671,7 +23671,7 @@
         <v>116.3586818854841</v>
       </c>
       <c r="I16" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3.964581131881395</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>120.2191399893758</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>128.4095638657662</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>206.3557187477952</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>67.78216032080431</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>258.1266653077544</v>
+        <v>57.44499089207534</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.285633399632578</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>184.8068753148985</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>258.1266653077544</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.5037317986412</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696688</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>76.82733429106277</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>90.93450923065888</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590281</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696666</v>
+        <v>27.9801063561877</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>208.2741987327944</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>215.4183714823288</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.074288727014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>63.16771833087591</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696694</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>217.0973192145769</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685987.458223031</v>
+        <v>685987.4582230309</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>635577.4490902204</v>
+        <v>635577.4490902205</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623391.6057536904</v>
+        <v>623391.6057536905</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642828</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>810411.3648893397</v>
       </c>
       <c r="F2" t="n">
-        <v>810411.3648893393</v>
+        <v>810411.3648893394</v>
       </c>
       <c r="G2" t="n">
-        <v>810411.3648893393</v>
+        <v>810411.3648893398</v>
       </c>
       <c r="H2" t="n">
-        <v>810411.3648893394</v>
+        <v>810411.36488934</v>
       </c>
       <c r="I2" t="n">
         <v>810411.3648893397</v>
@@ -26338,22 +26338,22 @@
         <v>794163.5737739661</v>
       </c>
       <c r="K2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739662</v>
       </c>
       <c r="L2" t="n">
         <v>794163.5737739659</v>
       </c>
       <c r="M2" t="n">
-        <v>794163.5737739665</v>
+        <v>794163.5737739663</v>
       </c>
       <c r="N2" t="n">
-        <v>794163.5737739663</v>
+        <v>794163.5737739659</v>
       </c>
       <c r="O2" t="n">
+        <v>794163.5737739661</v>
+      </c>
+      <c r="P2" t="n">
         <v>794163.5737739662</v>
-      </c>
-      <c r="P2" t="n">
-        <v>794163.5737739661</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508103.5201673751</v>
+        <v>508103.5201673739</v>
       </c>
       <c r="C3" t="n">
-        <v>77809.50180601412</v>
+        <v>77809.50180601527</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717323.4525752421</v>
+        <v>717323.4525752423</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
       <c r="I3" t="n">
         <v>29186.69324119233</v>
       </c>
       <c r="J3" t="n">
-        <v>158031.67775165</v>
+        <v>158031.6777516497</v>
       </c>
       <c r="K3" t="n">
-        <v>18090.97184560933</v>
+        <v>18090.97184560958</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231777.4017767644</v>
+        <v>231777.4017767647</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>50287.01481859404</v>
+        <v>50287.01481859403</v>
       </c>
       <c r="F4" t="n">
-        <v>50287.01481859406</v>
+        <v>50287.01481859401</v>
       </c>
       <c r="G4" t="n">
-        <v>50287.01481859406</v>
+        <v>50287.01481859397</v>
       </c>
       <c r="H4" t="n">
-        <v>50287.01481859405</v>
+        <v>50287.01481859402</v>
       </c>
       <c r="I4" t="n">
-        <v>37905.64806561215</v>
+        <v>37905.64806561211</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
+        <v>28561.83935289574</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="M4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="O4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>28561.83935289577</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28561.83935289578</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28561.83935289578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77266.20143038567</v>
+        <v>77266.20143038558</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,10 +26479,10 @@
         <v>92097.54350773215</v>
       </c>
       <c r="F5" t="n">
-        <v>92097.54350773215</v>
+        <v>92097.54350773216</v>
       </c>
       <c r="G5" t="n">
-        <v>92097.54350773215</v>
+        <v>92097.54350773216</v>
       </c>
       <c r="H5" t="n">
         <v>92097.54350773215</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3894.646489757637</v>
+        <v>3894.646489758714</v>
       </c>
       <c r="C6" t="n">
-        <v>450450.7745318263</v>
+        <v>450450.7745318251</v>
       </c>
       <c r="D6" t="n">
-        <v>528260.2763378402</v>
+        <v>528260.27633784</v>
       </c>
       <c r="E6" t="n">
-        <v>-49296.64601222867</v>
+        <v>-49323.22202466615</v>
       </c>
       <c r="F6" t="n">
-        <v>668026.8065630131</v>
+        <v>668000.2305505759</v>
       </c>
       <c r="G6" t="n">
-        <v>668026.8065630131</v>
+        <v>668000.2305505764</v>
       </c>
       <c r="H6" t="n">
-        <v>668026.8065630132</v>
+        <v>668000.2305505765</v>
       </c>
       <c r="I6" t="n">
-        <v>644548.2540074202</v>
+        <v>644521.6779949829</v>
       </c>
       <c r="J6" t="n">
-        <v>511186.5384157067</v>
+        <v>511119.3429254811</v>
       </c>
       <c r="K6" t="n">
-        <v>651127.2443217472</v>
+        <v>651060.0488315214</v>
       </c>
       <c r="L6" t="n">
-        <v>669218.2161673566</v>
+        <v>669151.0206771308</v>
       </c>
       <c r="M6" t="n">
-        <v>566927.7866720975</v>
+        <v>566860.5911818715</v>
       </c>
       <c r="N6" t="n">
-        <v>669218.2161673569</v>
+        <v>669151.0206771308</v>
       </c>
       <c r="O6" t="n">
-        <v>669218.2161673568</v>
+        <v>669151.0206771309</v>
       </c>
       <c r="P6" t="n">
-        <v>669218.2161673567</v>
+        <v>669151.020677131</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="H2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.2340877617143</v>
+        <v>317.2340877617135</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.9950381115179</v>
+        <v>603.9950381115169</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1084.755922917714</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-7.460698725481052e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.2340877617143</v>
+        <v>317.2340877617135</v>
       </c>
       <c r="C3" t="n">
-        <v>60.50957645537233</v>
+        <v>60.50957645537324</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.9950381115179</v>
+        <v>603.9950381115169</v>
       </c>
       <c r="C4" t="n">
-        <v>70.29223464303772</v>
+        <v>70.2922346430387</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>410.4686501631581</v>
+        <v>410.468650163158</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>109.7570076872166</v>
       </c>
       <c r="J4" t="n">
-        <v>603.9950381115179</v>
+        <v>603.9950381115169</v>
       </c>
       <c r="K4" t="n">
-        <v>70.29223464303772</v>
+        <v>70.2922346430387</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>410.4686501631579</v>
+        <v>410.468650163158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.9950381115179</v>
+        <v>603.9950381115169</v>
       </c>
       <c r="K4" t="n">
-        <v>70.29223464303772</v>
+        <v>70.2922346430387</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>410.4686501631581</v>
+        <v>410.468650163158</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>173.7126799628996</v>
+        <v>326.4140037186228</v>
       </c>
       <c r="I2" t="n">
-        <v>161.3093883907738</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.75874300502188</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>179.9588765214411</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.513167275983</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2436278745865</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3.427657371870225</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6453549794088</v>
       </c>
       <c r="I3" t="n">
-        <v>65.90335371057114</v>
+        <v>65.9033537105712</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>223.7866185200665</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>118.1412635406619</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>29.94980082643409</v>
+        <v>167.4189178887245</v>
       </c>
       <c r="H4" t="n">
         <v>157.1410259856206</v>
@@ -27558,7 +27558,7 @@
         <v>138.247026364705</v>
       </c>
       <c r="J4" t="n">
-        <v>52.91443420646209</v>
+        <v>52.9144342064622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.25969599967553</v>
+        <v>38.25969599967566</v>
       </c>
       <c r="R4" t="n">
-        <v>151.5714274743918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>214.0471267871492</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5013267848716</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2878260035963</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.65615184585238</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>204.7973835286708</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>289.544685425013</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50561684329045</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>82.9218316398003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883598</v>
       </c>
       <c r="U14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X14" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.3963330288372</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="C17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="D17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="E17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="F17" t="n">
-        <v>28.39633302883703</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="G17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="H17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="I17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="T17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="U17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="V17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="W17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="X17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="Y17" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="C19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="D19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="E19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="F19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="G19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="H19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="I19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="J19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="K19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="L19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="M19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="N19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="O19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="P19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="R19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="S19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="T19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="U19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="V19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="W19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="X19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883657</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V20" t="n">
-        <v>28.39633302883709</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y20" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="C25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="D25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="E25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="F25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="G25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="H25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="I25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="J25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="K25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="L25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="M25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="N25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="O25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="P25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="R25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="S25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="T25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="U25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="V25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="W25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="X25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.39633302883665</v>
+        <v>28.39633302883664</v>
       </c>
     </row>
     <row r="26">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.077696578835832e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.275312915624981</v>
+        <v>1.275312915624978</v>
       </c>
       <c r="H2" t="n">
-        <v>13.06079839714434</v>
+        <v>13.06079839714431</v>
       </c>
       <c r="I2" t="n">
-        <v>49.16650117963214</v>
+        <v>49.166501179632</v>
       </c>
       <c r="J2" t="n">
-        <v>108.2405895725258</v>
+        <v>108.2405895725256</v>
       </c>
       <c r="K2" t="n">
-        <v>162.2245852909313</v>
+        <v>162.2245852909309</v>
       </c>
       <c r="L2" t="n">
-        <v>201.2539429324894</v>
+        <v>201.2539429324889</v>
       </c>
       <c r="M2" t="n">
-        <v>223.9337889957351</v>
+        <v>223.9337889957345</v>
       </c>
       <c r="N2" t="n">
-        <v>227.5572718172546</v>
+        <v>227.557271817254</v>
       </c>
       <c r="O2" t="n">
-        <v>214.8758790125087</v>
+        <v>214.8758790125081</v>
       </c>
       <c r="P2" t="n">
-        <v>183.391591408017</v>
+        <v>183.3915914080165</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.7194476171973</v>
+        <v>137.7194476171969</v>
       </c>
       <c r="R2" t="n">
-        <v>80.1103749361278</v>
+        <v>80.11037493612758</v>
       </c>
       <c r="S2" t="n">
-        <v>29.06119306480429</v>
+        <v>29.06119306480421</v>
       </c>
       <c r="T2" t="n">
-        <v>5.582682288148358</v>
+        <v>5.582682288148343</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1020250332499985</v>
+        <v>0.1020250332499982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6823525661289704</v>
+        <v>0.6823525661289686</v>
       </c>
       <c r="H3" t="n">
-        <v>6.590089257087689</v>
+        <v>6.590089257087671</v>
       </c>
       <c r="I3" t="n">
-        <v>23.49327914084394</v>
+        <v>23.49327914084388</v>
       </c>
       <c r="J3" t="n">
-        <v>64.46735362712349</v>
+        <v>64.4673536271233</v>
       </c>
       <c r="K3" t="n">
-        <v>110.1849755577645</v>
+        <v>110.1849755577642</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1572973079591</v>
+        <v>148.1572973079587</v>
       </c>
       <c r="M3" t="n">
-        <v>172.8925778301343</v>
+        <v>172.8925778301338</v>
       </c>
       <c r="N3" t="n">
-        <v>177.4685299073764</v>
+        <v>177.4685299073759</v>
       </c>
       <c r="O3" t="n">
-        <v>162.3490335736766</v>
+        <v>162.3490335736761</v>
       </c>
       <c r="P3" t="n">
-        <v>130.2994123865049</v>
+        <v>130.2994123865045</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.10170651148051</v>
+        <v>87.10170651148027</v>
       </c>
       <c r="R3" t="n">
-        <v>42.36571458825311</v>
+        <v>42.36571458825299</v>
       </c>
       <c r="S3" t="n">
-        <v>12.67439963840433</v>
+        <v>12.6743996384043</v>
       </c>
       <c r="T3" t="n">
-        <v>2.750359685405805</v>
+        <v>2.750359685405798</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04489161619269544</v>
+        <v>0.04489161619269532</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5720614697342389</v>
+        <v>0.5720614697342373</v>
       </c>
       <c r="H4" t="n">
-        <v>5.086146521818963</v>
+        <v>5.08614652181895</v>
       </c>
       <c r="I4" t="n">
-        <v>17.2034485625533</v>
+        <v>17.20344856255325</v>
       </c>
       <c r="J4" t="n">
-        <v>40.44474591021068</v>
+        <v>40.44474591021058</v>
       </c>
       <c r="K4" t="n">
-        <v>66.46314166548702</v>
+        <v>66.46314166548683</v>
       </c>
       <c r="L4" t="n">
-        <v>85.04993887303404</v>
+        <v>85.04993887303381</v>
       </c>
       <c r="M4" t="n">
-        <v>89.67323566024982</v>
+        <v>89.67323566024957</v>
       </c>
       <c r="N4" t="n">
-        <v>87.5410065457859</v>
+        <v>87.54100654578566</v>
       </c>
       <c r="O4" t="n">
-        <v>80.8582884675268</v>
+        <v>80.85828846752659</v>
       </c>
       <c r="P4" t="n">
-        <v>69.18823448494828</v>
+        <v>69.1882344849481</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.90234725201886</v>
+        <v>47.90234725201873</v>
       </c>
       <c r="R4" t="n">
-        <v>25.72196390277768</v>
+        <v>25.72196390277761</v>
       </c>
       <c r="S4" t="n">
-        <v>9.96947124982305</v>
+        <v>9.969471249823023</v>
       </c>
       <c r="T4" t="n">
-        <v>2.444262643409929</v>
+        <v>2.444262643409922</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03120335289459488</v>
+        <v>0.0312033528945948</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.461131202644</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31850,7 +31850,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -33023,13 +33023,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33506,13 +33506,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,13 +33971,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.29130021791333</v>
+        <v>96.29130021791303</v>
       </c>
       <c r="K2" t="n">
-        <v>266.2801468171155</v>
+        <v>266.2801468171151</v>
       </c>
       <c r="L2" t="n">
-        <v>383.1487425129526</v>
+        <v>383.148742512952</v>
       </c>
       <c r="M2" t="n">
-        <v>443.1010892612949</v>
+        <v>443.1010892612943</v>
       </c>
       <c r="N2" t="n">
-        <v>435.4911326326479</v>
+        <v>435.4911326326472</v>
       </c>
       <c r="O2" t="n">
-        <v>365.5778488535673</v>
+        <v>365.5778488535668</v>
       </c>
       <c r="P2" t="n">
-        <v>273.9573038242301</v>
+        <v>273.9573038242296</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.7287484026525</v>
+        <v>127.7287484026521</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63.72076230086545</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8087735959841</v>
+        <v>236.8087735959838</v>
       </c>
       <c r="L3" t="n">
-        <v>380.4432628315441</v>
+        <v>183.5138746204289</v>
       </c>
       <c r="M3" t="n">
-        <v>496.4636076581158</v>
+        <v>496.4636076581154</v>
       </c>
       <c r="N3" t="n">
-        <v>525.4691921675966</v>
+        <v>525.4691921675961</v>
       </c>
       <c r="O3" t="n">
-        <v>413.6151084059617</v>
+        <v>413.6151084059612</v>
       </c>
       <c r="P3" t="n">
-        <v>181.5791477018634</v>
+        <v>314.7877736121114</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.1972201613081</v>
+        <v>157.1972201613079</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.19364983960416</v>
+        <v>44.19364983960398</v>
       </c>
       <c r="L4" t="n">
-        <v>112.6399641333502</v>
+        <v>112.6399641333499</v>
       </c>
       <c r="M4" t="n">
-        <v>129.2571126220904</v>
+        <v>129.2571126220902</v>
       </c>
       <c r="N4" t="n">
-        <v>131.6731789250145</v>
+        <v>131.6731789250143</v>
       </c>
       <c r="O4" t="n">
-        <v>105.4434163815665</v>
+        <v>105.4434163815663</v>
       </c>
       <c r="P4" t="n">
-        <v>66.46679374984177</v>
+        <v>66.46679374984159</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>637.7737230408204</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>558.6574490300681</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597728</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35498,7 +35498,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K13" t="n">
         <v>234.4439925731562</v>
@@ -35577,7 +35577,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N13" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O13" t="n">
         <v>330.7494632514764</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>656.0460439371603</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>865.2902060652195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K16" t="n">
         <v>234.4439925731562</v>
@@ -35814,7 +35814,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N16" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O16" t="n">
         <v>330.7494632514764</v>
@@ -35884,19 +35884,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>637.7737230408204</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>782.9568091664086</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190276</v>
       </c>
       <c r="K19" t="n">
-        <v>234.4439925731562</v>
+        <v>234.4439925731561</v>
       </c>
       <c r="L19" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990346</v>
       </c>
       <c r="M19" t="n">
         <v>376.0297124223204</v>
       </c>
       <c r="N19" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O19" t="n">
-        <v>330.7494632514764</v>
+        <v>330.7494632514763</v>
       </c>
       <c r="P19" t="n">
         <v>263.353404173947</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.7905715667303</v>
+        <v>106.7905715667302</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265651</v>
@@ -36130,19 +36130,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>953.3063382285068</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>696.3862937358761</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K22" t="n">
         <v>234.4439925731562</v>
@@ -36288,7 +36288,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N22" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O22" t="n">
         <v>330.7494632514764</v>
@@ -36358,28 +36358,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>416.212787535883</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190283</v>
       </c>
       <c r="K25" t="n">
         <v>234.4439925731562</v>
@@ -36525,7 +36525,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N25" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O25" t="n">
         <v>330.7494632514764</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>198.4178976040577</v>
       </c>
       <c r="K26" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
@@ -36844,16 +36844,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>76.4137719013135</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>475.3876201085255</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908542</v>
@@ -37154,13 +37154,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306627</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
         <v>347.6333793934838</v>
@@ -37239,10 +37239,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
         <v>78.39423853789363</v>
@@ -37309,25 +37309,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>513.2623588395702</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359034</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265651</v>
@@ -37552,19 +37552,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359034</v>
+        <v>862.536685828881</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>737.6365532602224</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>794.1893959229037</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359034</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
